--- a/medicine/Mort/Cimetière_de_Douai/Cimetière_de_Douai.xlsx
+++ b/medicine/Mort/Cimetière_de_Douai/Cimetière_de_Douai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Douai</t>
+          <t>Cimetière_de_Douai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière principal de Douai est un cimetière situé à l'est de Douai, en grande partie sur le finage de Sin-le-Noble, et consacré en 1817.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Douai</t>
+          <t>Cimetière_de_Douai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière principal de Douai est fondé en 1817. Il est consacré le 21 mai en présence de Joseph de Mégille, maire de Douai.
 			L'entrée du cimetière.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Douai</t>
+          <t>Cimetière_de_Douai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses personnalités sont enterrées dans le cimetière :
 Augustin Boutique (1862-1944), photographe, et son grand-père Augustin Joseph Boutique
@@ -565,7 +581,7 @@
 Jules Maurice (1808-1876), député et sénateur du Nord, et son fils, Léon Maurice (1834-1890), député du Nord
 Augustin Pèpe (1838-1900), architecte, et sa fille Valentine Pèpe (1875-1938), peintre
 Louis Philippe François de Warenghien de Flory (1771-1854)
-Certaines personnalités sont enterrées dans le « Panthéon douaisien », situé au fond du cimetière. Ces tombeaux sont pour l'essentiel postérieurs au décès de leurs occupants[1].
+Certaines personnalités sont enterrées dans le « Panthéon douaisien », situé au fond du cimetière. Ces tombeaux sont pour l'essentiel postérieurs au décès de leurs occupants.
 			Tombe Becquet de Mégille.
 			Tombe de Théophile Bra.
 			Tombe d'Ignace Delecroix.
